--- a/data/trans_dic/P28A_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28A_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más tabaco respecto al último mes</t>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 46,15</t>
+          <t>4,86; 17,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 30,23</t>
+          <t>1,37; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 19,47</t>
+          <t>1,68; 6,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,27</t>
+          <t>0,66; 3,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 18,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,02; 56,15</t>
+          <t>4,4; 13,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,78; 55,05</t>
+          <t>1,74; 8,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 26,35</t>
+          <t>2,65; 7,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 17,68</t>
+          <t>1,14; 4,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 34,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 47,54</t>
+          <t>5,61; 13,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 35,02</t>
+          <t>2,2; 6,93</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 20,75</t>
+          <t>2,58; 6,13</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,64</t>
+          <t>1,22; 3,74</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 22,35</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>9,93%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,5%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,29; 37,04</t>
+          <t>7,81; 15,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 24,97</t>
+          <t>5,03; 12,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,02</t>
+          <t>3,66; 8,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 15,06</t>
+          <t>2,56; 6,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 21,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 40,35</t>
+          <t>7,34; 13,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 27,56</t>
+          <t>3,29; 7,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 19,44</t>
+          <t>4,16; 8,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 23,25</t>
+          <t>4,08; 7,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 27,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,33; 36,96</t>
+          <t>8,11; 13,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 23,78</t>
+          <t>4,8; 8,83</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,8</t>
+          <t>4,44; 7,46</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 17,2</t>
+          <t>3,68; 6,45</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 21,56</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,5; 32,13</t>
+          <t>2,42; 8,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 45,31</t>
+          <t>3,01; 14,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 18,34</t>
+          <t>1,55; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 17,61</t>
+          <t>1,55; 5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 23,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,7; 47,6</t>
+          <t>5,6; 13,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 35,31</t>
+          <t>3,02; 8,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 19,39</t>
+          <t>2,59; 6,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 20,53</t>
+          <t>2,9; 6,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 33,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 37,28</t>
+          <t>4,99; 10,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,45; 36,6</t>
+          <t>3,92; 10,33</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,41</t>
+          <t>2,6; 5,58</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,67; 16,79</t>
+          <t>2,72; 5,54</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 24,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 34,94</t>
+          <t>8,49; 12,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,52; 26,7</t>
+          <t>5,48; 13,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 15,45</t>
+          <t>2,59; 7,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 41,11</t>
+          <t>8,09; 12,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 29,87</t>
+          <t>4,46; 8,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,98</t>
+          <t>1,58; 5,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 25,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 36,47</t>
+          <t>8,81; 11,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,68</t>
+          <t>5,6; 10,41</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,72</t>
+          <t>2,63; 5,64</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,67; 14,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 11,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 9,85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 5,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 4,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 11,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 6,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 5,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 5,54</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 11,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 7,86</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 5,36</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 4,67</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21671</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13642</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18875</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12483</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21582</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17362</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29392</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22087</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43254</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31004</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>48267</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>34570</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10998; 39452</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4661; 29568</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8910; 34287</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4726; 27124</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11525; 36377</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7343; 35042</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16922; 47887</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10267; 42587</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27393; 63808</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16714; 52743</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30198; 71622</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19666; 60451</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73070</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74072</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67359</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64907</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>70988</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50870</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71941</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>85444</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>144058</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>124941</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>139300</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>150351</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50818; 102223</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46936; 112284</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44095; 96458</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41545; 106152</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52479; 98860</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32949; 77221</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51333; 99069</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>61480; 116219</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>110733; 178323</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>92818; 170650</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>108334; 181879</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>115206; 201896</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22263</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47559</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28088</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32414</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49491</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40145</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40355</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52461</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>71754</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87704</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>68443</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>84875</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11026; 39095</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21550; 100839</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13079; 54273</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16941; 56839</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29765; 73045</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23095; 63183</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24391; 64207</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33781; 76693</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49226; 104404</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58018; 152833</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>46484; 99822</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>61273; 124891</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>222341</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>123613</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39238</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>209715</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>88276</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23332</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>432056</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>211889</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>62570</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>179408; 270580</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79834; 200548</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22295; 65385</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>168971; 254078</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>62285; 121992</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12027; 40900</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>370302; 496104</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>159755; 297234</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>42650; 91511</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>339345</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>258885</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>153560</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>109803</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>351776</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>196653</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>165020</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>691121</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>455538</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>318581</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>269795</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>282745; 393042</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>193841; 339230</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>120887; 200896</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>78099; 164293</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>301415; 410779</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>155618; 243300</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>132824; 208095</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>122156; 197551</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>620597; 776097</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>378241; 552110</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>266360; 376256</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>220813; 326822</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>